--- a/MiniProject/media/MiniApp_Images/branch.xlsx
+++ b/MiniProject/media/MiniApp_Images/branch.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S111"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,7 +444,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">05-Feb-2024 </t>
         </is>
       </c>
       <c r="F1" t="n">
@@ -480,41 +480,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>9 Months 8 Days0</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>50,00,000.00</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>2008 - SOD AGAINST PLEDGE OF SB FDR</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>2008 - SOD AGAINST PLEDGE OF SB FDR</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -539,7 +504,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">12-May-2024 </t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -575,41 +540,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>11 Months 30</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>4415643000459 27-Aug-202528-Aug-2024 BDT 28-Aug-2024 30,000.00</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2014 - SOD AGAINST SDS</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>2014 - SOD AGAINST SDS</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -619,7 +549,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>2014 - SOD AGAINST SDS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -634,7 +564,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">28-Aug-2024 </t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -670,41 +600,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Total : 80,000.00</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2014 - SOD AGAINST SDS</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -714,7 +609,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>2015 - SOD AGAINST EDS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -729,7 +624,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">31-Mar-2024 </t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -765,41 +660,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>9 Months 14</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Total : 1,25,000.00</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>2014 - SOD AGAINST SDS</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -824,7 +684,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">25-Apr-2024 </t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -860,41 +720,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>4415643000435 11-Mar-202512-Mar-2024 BDT 12-Mar-2024 2,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>2017 - SOD AGAINST MDS</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>2017 - SOD AGAINST MDS</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -904,7 +729,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>2017 - SOD AGAINST MDS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -919,7 +744,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">12-Mar-2024 </t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -955,41 +780,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>11 Months 28</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>4415643000423 09-Jan-202510-Jan-2024 BDT 10-Jan-2024 3,80,000.00</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>2017 - SOD AGAINST MDS</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -999,7 +789,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>2017 - SOD AGAINST MDS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1014,7 +804,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">10-Jan-2024 </t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1050,41 +840,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Total : 12,80,000.00</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>2017 - SOD AGAINST MDS</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1109,7 +864,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">01-Apr-2024 </t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1145,41 +900,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>60 Months 30</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>4415648000156 30-Apr-202827-Mar-2024 BDT 27-Mar-2024 3,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1189,7 +909,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1204,7 +924,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">27-Mar-2024 </t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1240,41 +960,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>49 Months 4</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>Page 2 of16 Branch Code DHANMONDI CORPORATE DHAKA</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1284,7 +969,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1299,7 +984,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">20-Feb-2024 </t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1335,41 +1020,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>61 Months 11</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>4415648000158 28-May-202623-Apr-2024 BDT 23-Apr-2024 2,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1379,7 +1029,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1394,7 +1044,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">23-Apr-2024 </t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1430,41 +1080,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>25 Months 6</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>4415648000159 30-May-202830-Apr-2024 BDT 30-Apr-2024 3,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1474,7 +1089,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1489,7 +1104,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-Apr-2024 </t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1525,41 +1140,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>49 Months 0</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>4415648000164 29-Aug-202816-Jul-2024 BDT 16-Jul-2024 2,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1569,7 +1149,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1584,7 +1164,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">16-Jul-2024 </t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1620,41 +1200,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>49 Months 14</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>4415648000163 30-Jul-202926-Jun-2024 BDT 11-Jun-2024 12,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1664,7 +1209,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1679,7 +1224,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">26-Jun-2024 </t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1715,41 +1260,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>61 Months 5</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>4415648000162 30-Jul-202904-Jun-2024 BDT 26-May-2024 15,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1759,7 +1269,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1774,7 +1284,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">04-Jun-2024 </t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1810,41 +1320,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>61 Months 27</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>4415648000154 30-Mar-202906-Feb-2024 BDT 04-Feb-2024 10,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1854,7 +1329,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1869,7 +1344,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">06-Feb-2024 </t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1905,41 +1380,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>61 Months 25</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>4415648000160 10-Jul-202916-May-2024 BDT 16-May-2024 9,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1949,7 +1389,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1964,7 +1404,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">16-May-2024 </t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -2000,41 +1440,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>61 Months 25</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>4415648000161 30-Jun-202930-May-2024 BDT 30-May-2024 6,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2044,7 +1449,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2059,7 +1464,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-May-2024 </t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2095,41 +1500,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>61 Months 1</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>Page 3 of16 Branch Code DHANMONDI CORPORATE DHAKA</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>2034 - Personal Loan (CONSUMER LOAN)</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2154,7 +1524,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">09-May-2024 </t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2190,41 +1560,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>11 Months 30</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>4415643000449 13-May-202514-May-2024 BDT 14-May-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2234,7 +1569,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2249,7 +1584,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">14-May-2024 </t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2285,41 +1620,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>11 Months 30</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>4415643000450 28-May-202529-May-2024 BDT 29-May-2024 25,000.00</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2329,7 +1629,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2344,7 +1644,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">29-May-2024 </t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -2380,41 +1680,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>11 Months 30</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>4415643000451 28-May-202529-May-2024 BDT 29-May-2024 89,000.00</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2424,7 +1689,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2439,7 +1704,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">29-May-2024 </t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2475,41 +1740,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>11 Months 30</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>4415643000452 24-Jun-202525-Jun-2024 BDT 25-Jun-2024 2,10,000.00</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2519,7 +1749,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2534,7 +1764,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">25-Jun-2024 </t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -2570,41 +1800,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>4415643000453 07-Jul-202508-Jul-2024 BDT 08-Jul-2024 3,40,000.00</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2614,7 +1809,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2629,7 +1824,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">08-Jul-2024 </t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -2665,41 +1860,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>11 Months 30</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>4415643000454 10-Jul-202511-Jul-2024 BDT 11-Jul-2024 80,000.00</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2709,7 +1869,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2724,7 +1884,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">11-Jul-2024 </t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -2760,41 +1920,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>11 Months 30</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Page 4 of16 Branch Code DHANMONDI CORPORATE DHAKA</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2804,7 +1929,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2819,7 +1944,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">14-Jul-2024 </t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -2855,41 +1980,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>11 Months 30</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>4415643000456 14-Jul-202515-Jul-2024 BDT 15-Jul-2024 2,10,000.00</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2899,7 +1989,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2914,7 +2004,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">15-Jul-2024 </t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -2950,41 +2040,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>11 Months 30</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>4415643000457 17-Jul-202518-Jul-2024 BDT 18-Jul-2024 2,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2994,7 +2049,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3009,7 +2064,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">18-Jul-2024 </t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -3045,41 +2100,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>11 Months 30</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>4415643000458 17-Aug-202518-Aug-2024 BDT 18-Aug-2024 3,70,000.00</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3089,7 +2109,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3104,7 +2124,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">18-Aug-2024 </t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -3140,41 +2160,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>4415643000460 27-Aug-202528-Aug-2024 BDT 28-Aug-2024 1,60,000.00</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3184,7 +2169,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3199,7 +2184,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">28-Aug-2024 </t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -3235,41 +2220,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>4415643000446 04-May-202505-May-2024 BDT 05-May-2024 4,10,000.00</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3279,7 +2229,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3294,7 +2244,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">05-May-2024 </t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -3330,41 +2280,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>11 Months 30</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>4415643000419 31-Dec-202401-Jan-2024 BDT 01-Jan-2024 1,20,000.00</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3374,7 +2289,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3389,7 +2304,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">01-Jan-2024 </t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -3425,41 +2340,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>4415643000420 02-Jan-202503-Jan-2024 BDT 03-Jan-2024 4,80,000.00</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3469,7 +2349,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3484,7 +2364,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">03-Jan-2024 </t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -3520,41 +2400,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>4415643000421 03-Jan-202504-Jan-2024 BDT 04-Jan-2024 5,85,000.00</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3564,7 +2409,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3579,7 +2424,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">04-Jan-2024 </t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -3615,41 +2460,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>11.89</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>Page 5 of16 Branch Code DHANMONDI CORPORATE DHAKA</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3659,7 +2469,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3674,7 +2484,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">04-Jan-2024 </t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -3710,41 +2520,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>4415643000424 13-Jan-202514-Jan-2024 BDT 14-Jan-2024 2,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3754,7 +2529,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3769,7 +2544,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">14-Jan-2024 </t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3805,41 +2580,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>4415643000425 15-Jan-202516-Jan-2024 BDT 16-Jan-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3849,7 +2589,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3864,7 +2604,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">16-Jan-2024 </t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -3900,41 +2640,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>4415643000426 22-Jan-202523-Jan-2024 BDT 23-Jan-2024 73,000.00</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3944,7 +2649,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3959,7 +2664,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">23-Jan-2024 </t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -3995,41 +2700,6 @@
           <t>01</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Branch Manager</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>11.89</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4039,7 +2709,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4054,7 +2724,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">25-Jan-2024 </t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4090,41 +2760,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>11.89</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>4415643000444 17-Apr-202518-Apr-2024 BDT 18-Apr-2024 4,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>11.89</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4134,7 +2769,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4149,7 +2784,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">18-Apr-2024 </t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4185,41 +2820,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>4415643000443 07-Apr-202508-Apr-2024 BDT 08-Apr-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>11.89</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4229,7 +2829,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4244,7 +2844,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">08-Apr-2024 </t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4280,41 +2880,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>4415643000442 03-Apr-202504-Apr-2024 BDT 04-Apr-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4324,7 +2889,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4339,7 +2904,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">04-Apr-2024 </t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4375,41 +2940,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>4415643000440 30-Mar-202531-Mar-2024 BDT 31-Mar-2024 1,63,000.00</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4419,7 +2949,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4434,7 +2964,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">31-Mar-2024 </t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4470,41 +3000,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>Page 6 of16 Branch Code DHANMONDI CORPORATE DHAKA</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4514,7 +3009,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4529,7 +3024,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">28-Mar-2024 </t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -4565,41 +3060,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>11 Months 28</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>4415643000438 17-Mar-202518-Mar-2024 BDT 18-Mar-2024 1,55,000.00</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4609,7 +3069,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>12.50</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4624,7 +3084,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">18-Mar-2024 </t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -4660,41 +3120,6 @@
           <t>01</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Branch Manager</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>11 Months 28</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>12.50</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4704,7 +3129,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4719,7 +3144,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">18-Mar-2024 </t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -4755,41 +3180,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>11 Months 28</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>4415643000436 12-Mar-202513-Mar-2024 BDT 13-Mar-2024 56,000.00</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4799,7 +3189,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4814,7 +3204,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">13-Mar-2024 </t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -4850,41 +3240,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>11 Months 28</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>4415643000434 27-Feb-202528-Feb-2024 BDT 28-Feb-2024 2,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4894,7 +3249,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4909,7 +3264,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">28-Feb-2024 </t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -4945,41 +3300,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>12.43</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>4415643000433 21-Feb-202522-Feb-2024 BDT 22-Feb-2024 5,50,000.00</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4989,7 +3309,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -5004,7 +3324,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">22-Feb-2024 </t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -5040,41 +3360,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>12.43</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>4415643000432 19-Feb-202520-Feb-2024 BDT 20-Feb-2024 4,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>12.43</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5084,7 +3369,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5099,7 +3384,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">20-Feb-2024 </t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -5135,41 +3420,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>4415643000431 18-Feb-202519-Feb-2024 BDT 19-Feb-2024 80,000.00</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>12.43</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5179,7 +3429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -5194,7 +3444,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">19-Feb-2024 </t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -5230,41 +3480,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>4415643000430 05-Feb-202506-Feb-2024 BDT 06-Feb-2024 1,70,000.00</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5274,7 +3489,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5289,7 +3504,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">06-Feb-2024 </t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -5325,41 +3540,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Page 7 of16 Branch Code DHANMONDI CORPORATE DHAKA</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5369,7 +3549,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>2051 - SOD AGAINST SBMS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5384,7 +3564,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">04-Feb-2024 </t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -5420,41 +3600,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>11.00</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Total : 71,45,000.00</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>2051 - SOD AGAINST SBMS</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5479,7 +3624,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">29-Jul-2024 </t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -5515,41 +3660,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>82 Months 6</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>4415650000193 03-Jun-203030-Jul-2024 BDT 30-Jul-2024 6,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5559,7 +3669,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5574,7 +3684,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-Jul-2024 </t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -5610,41 +3720,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>70 Months 5</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>4415650000186 28-Feb-202922-Jan-2024 BDT 22-Jan-2024 3,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5654,7 +3729,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5669,7 +3744,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">22-Jan-2024 </t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -5705,41 +3780,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>61 Months 7</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>4415650000187 11-Nov-202811-Feb-2024 BDT 11-Feb-2024 7,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5749,7 +3789,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5764,7 +3804,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">11-Feb-2024 </t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -5800,41 +3840,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>57 Months 1</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>4415650000185 31-Mar-203021-Jan-2024 BDT 21-Jan-2024 10,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5844,7 +3849,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5859,7 +3864,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">21-Jan-2024 </t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -5895,41 +3900,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>74 Months 11</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>4415650000189 11-Jan-202911-Mar-2024 BDT 11-Mar-2024 80,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5939,7 +3909,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5954,7 +3924,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">11-Mar-2024 </t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -5990,41 +3960,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>58 Months 1</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Page 8 of16 Branch Code DHANMONDI CORPORATE DHAKA</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6034,7 +3969,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -6049,7 +3984,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">11-Mar-2024 </t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -6085,41 +4020,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>58 Months 24</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>4415650000191 18-Mar-202918-Apr-2024 BDT 18-Apr-2024 8,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6129,7 +4029,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -6144,7 +4044,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">18-Apr-2024 </t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -6180,41 +4080,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>59 Months 1</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>4415650000188 11-Jan-202911-Mar-2024 BDT 15-Jul-2024 0.00</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -6224,7 +4089,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -6239,7 +4104,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">11-Mar-2024 </t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -6275,41 +4140,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>58 Months 1</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>Total : 1,32,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>2056 - Special Term Loan To Freedom Fighter (Govt. Allow)</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -6334,7 +4164,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">15-Aug-2024 </t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -6370,41 +4200,6 @@
           <t>Branch</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>121 Months 1</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>4415651000152 27-Aug-203415-Jul-2024 BDT 15-Jul-2024 5,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>2105 - MOTOR CYCLE LOAN</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>2105 - MOTOR CYCLE LOAN</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6414,7 +4209,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2105 - MOTOR CYCLE LOAN</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -6429,7 +4224,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">15-Jul-2024 </t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -6465,41 +4260,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>121 Months 13</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>4415651000151 30-Jun-203424-Jun-2024 BDT 24-Jun-2024 5,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>2105 - MOTOR CYCLE LOAN</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6509,7 +4269,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2105 - MOTOR CYCLE LOAN</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -6524,7 +4284,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">24-Jun-2024 </t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -6560,41 +4320,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>120 Months 7</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>4415651000150 26-Jul-203406-Jun-2024 BDT 06-Jun-2024 5,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>2105 - MOTOR CYCLE LOAN</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6604,7 +4329,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>2105 - MOTOR CYCLE LOAN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -6619,7 +4344,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">06-Jun-2024 </t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -6655,41 +4380,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>121 Months 21</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>Page 9 of16 Branch Code DHANMONDI CORPORATE DHAKA</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>2105 - MOTOR CYCLE LOAN</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6699,7 +4389,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>2105 - MOTOR CYCLE LOAN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -6714,7 +4404,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">14-Feb-2024 </t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -6750,41 +4440,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>121 Months 13</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>Total : 23,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>2105 - MOTOR CYCLE LOAN</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6809,7 +4464,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">09-Jan-2024 </t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -6845,41 +4500,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>61 Months 16</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>Total : 75,000.00</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>2106 - COMPUTER LOAN</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>2106 - COMPUTER LOAN</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6904,7 +4524,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">29-Aug-2024 </t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -6940,41 +4560,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>4415653000060 02-Jan-202502-Jan-2024 BDT 13-Dec-2023 40,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6984,7 +4569,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6999,7 +4584,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">02-Jan-2024 </t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -7035,41 +4620,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>4415653000074 13-Jun-202513-Jun-2024 BDT 13-Jun-2024 4,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -7079,7 +4629,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -7094,7 +4644,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">13-Jun-2024 </t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -7130,41 +4680,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>4415653000073 05-Jun-202505-Jun-2024 BDT 04-Jun-2024 3,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -7174,7 +4689,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -7189,7 +4704,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">05-Jun-2024 </t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -7225,41 +4740,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>Page 10 of16 Branch Code DHANMONDI CORPORATE DHAKA</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -7269,7 +4749,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -7284,7 +4764,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">19-May-2024 </t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -7320,41 +4800,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>4415653000071 08-May-202509-May-2024 BDT 09-May-2024 1,75,000.00</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -7364,7 +4809,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -7379,7 +4824,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">09-May-2024 </t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -7415,41 +4860,6 @@
           <t>01</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>Branch Manager</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>11 Months 30</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -7459,7 +4869,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -7474,7 +4884,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">08-May-2024 </t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -7510,41 +4920,6 @@
           <t>01</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>Branch Manager</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -7554,7 +4929,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -7569,7 +4944,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">03-Apr-2024 </t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -7605,41 +4980,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>4415653000068 25-Mar-202525-Mar-2024 BDT 25-Mar-2024 5,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -7649,7 +4989,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -7664,7 +5004,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">25-Mar-2024 </t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -7700,41 +5040,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>4415653000067 24-Mar-202524-Mar-2024 BDT 24-Mar-2024 3,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7744,7 +5049,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -7759,7 +5064,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">24-Mar-2024 </t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -7795,41 +5100,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>4415653000066 19-Mar-202519-Mar-2024 BDT 19-Mar-2024 3,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7839,7 +5109,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7854,7 +5124,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">19-Mar-2024 </t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -7890,41 +5160,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>4415653000065 19-Mar-202519-Mar-2024 BDT 19-Mar-2024 2,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7934,7 +5169,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -7949,7 +5184,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">19-Mar-2024 </t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -7985,41 +5220,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O80" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>4415653000064 11-Mar-202511-Mar-2024 BDT 07-Mar-2024 3,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -8029,7 +5229,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -8044,7 +5244,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">11-Mar-2024 </t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -8080,41 +5280,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>Page 11 of16 Branch Code DHANMONDI CORPORATE DHAKA</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -8124,7 +5289,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -8139,7 +5304,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">07-Mar-2024 </t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -8175,41 +5340,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>4415653000062 22-Feb-202522-Feb-2024 BDT 22-Feb-2024 3,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -8219,7 +5349,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -8234,7 +5364,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">22-Feb-2024 </t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -8270,41 +5400,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>4415653000061 27-Jan-202528-Jan-2024 BDT 28-Jan-2024 5,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -8314,7 +5409,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -8329,7 +5424,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">28-Jan-2024 </t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -8365,41 +5460,6 @@
           <t>01</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>Branch Manager</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>11 Months 31</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -8409,7 +5469,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -8424,7 +5484,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-Jul-2024 </t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -8460,41 +5520,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>Total : 88,15,000.00</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>12.90</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>2212 - SME FINANCE (WORKING CAPITAL TO TRADE)</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -8519,7 +5544,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">05-Feb-2024 </t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -8555,41 +5580,6 @@
           <t>01</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>Branch Manager</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>12 Months 1</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>2243 - CMSME Continuous Loan Under BB PreFinance Scheme</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>2243 - CMSME Continuous Loan Under BB PreFinance Scheme</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -8614,7 +5604,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">27-Jun-2024 </t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -8650,41 +5640,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>13 Months 4</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>Page 12 of16 Branch Code DHANMONDI CORPORATE DHAKA</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -8694,7 +5649,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -8709,7 +5664,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">28-Mar-2024 </t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -8745,41 +5700,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>15 Months 1</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>4415662000013 30-Jun-202529-May-2024 BDT 29-May-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8789,7 +5709,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -8804,7 +5724,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">29-May-2024 </t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -8840,41 +5760,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>13 Months 2</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>4415662000016 30-Jun-202530-May-2024 BDT 30-May-2024 50,000.00</t>
-        </is>
-      </c>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -8884,7 +5769,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -8899,7 +5784,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-May-2024 </t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -8935,41 +5820,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>13 Months 1</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>4415662000017 02-Jul-202530-May-2024 BDT 30-May-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -8979,7 +5829,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -8994,7 +5844,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-May-2024 </t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -9030,41 +5880,6 @@
           <t>01</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>Branch Manager</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>13 Months 3</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>10,000.00</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9074,7 +5889,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -9089,7 +5904,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">10-Jun-2024 </t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -9125,41 +5940,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>13 Months 21</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>4415662000021 30-Jul-202527-Jun-2024 BDT 27-Jun-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9169,7 +5949,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -9184,7 +5964,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">27-Jun-2024 </t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -9220,41 +6000,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>13 Months 4</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>4415662000027 30-Jul-202530-Jun-2024 BDT 30-Jun-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9264,7 +6009,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -9279,7 +6024,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-Jun-2024 </t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -9315,41 +6060,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>13 Months 0</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>4415662000026 30-Jul-202530-Jun-2024 BDT 30-Jun-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9359,7 +6069,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -9374,7 +6084,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-Jun-2024 </t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -9410,41 +6120,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>13 Months 0</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>4415662000025 30-Jul-202530-Jun-2024 BDT 30-Jun-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9454,7 +6129,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -9469,7 +6144,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-Jun-2024 </t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -9505,41 +6180,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>13 Months 0</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>Page 13 of16 Branch Code DHANMONDI CORPORATE DHAKA</t>
-        </is>
-      </c>
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9549,7 +6189,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -9564,7 +6204,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-Jun-2024 </t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -9600,41 +6240,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>13 Months 0</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>4415662000023 30-Jul-202530-Jun-2024 BDT 30-Jun-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -9644,7 +6249,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -9659,7 +6264,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-Jun-2024 </t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -9695,41 +6300,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>13 Months 0</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>4415662000022 30-Jul-202530-Jun-2024 BDT 30-Jun-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9739,7 +6309,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -9754,7 +6324,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-Jun-2024 </t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -9790,41 +6360,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>13 Months 0</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>4415662000019 30-Jul-202527-Jun-2024 BDT 26-Jun-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -9834,7 +6369,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -9849,7 +6384,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">27-Jun-2024 </t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -9885,41 +6420,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>13 Months 4</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>Total : 13,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>2510 - INVEST. PROG. IN FARM-OFF FARM SECT. EXCEPT CROP</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9944,7 +6444,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">16-Jul-2024 </t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -9980,41 +6480,6 @@
           <t>08</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>Board of Director</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>37 Months 13</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>1,55,00,000.00</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>2518 - SONALI BANK LIMITED NGO LINKAGE CREDIT</t>
-        </is>
-      </c>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>2518 - SONALI BANK LIMITED NGO LINKAGE CREDIT</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10024,7 +6489,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2518 - SONALI BANK LIMITED NGO LINKAGE CREDIT</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -10039,7 +6504,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">10-Mar-2024 </t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -10075,41 +6540,6 @@
           <t>08</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>Board of Director</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>36 Months 21</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>3,90,00,000.00</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>2518 - SONALI BANK LIMITED NGO LINKAGE CREDIT</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10119,7 +6549,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>2524 - CREDIT FOR URBAN WOMEN MICRO ENTERPRISE DEV (CUMED</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -10134,7 +6564,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-Jun-2024 </t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -10170,41 +6600,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>37 Months 1</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>4415663000020 30-Jul-202730-Jun-2024 BDT 30-Jun-2024 5,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="R103" t="inlineStr">
-        <is>
-          <t>2518 - SONALI BANK LIMITED NGO LINKAGE CREDIT</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10214,7 +6609,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2524 - CREDIT FOR URBAN WOMEN MICRO ENTERPRISE DEV (CUMED</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -10229,7 +6624,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-Jun-2024 </t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -10265,41 +6660,6 @@
           <t>01</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>Branch Manager</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>37 Months 0</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>16,500.00</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>2518 - SONALI BANK LIMITED NGO LINKAGE CREDIT</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10309,7 +6669,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2524 - CREDIT FOR URBAN WOMEN MICRO ENTERPRISE DEV (CUMED</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -10324,7 +6684,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">06-Jun-2024 </t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -10360,41 +6720,6 @@
           <t>01</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>Branch Manager</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>36 Months 2</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>16,500.00</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>2518 - SONALI BANK LIMITED NGO LINKAGE CREDIT</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10404,7 +6729,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2524 - CREDIT FOR URBAN WOMEN MICRO ENTERPRISE DEV (CUMED</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -10419,7 +6744,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-Jun-2024 </t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -10455,41 +6780,6 @@
           <t>01</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>Branch Manager</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>37 Months 0</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>9,500.00</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="Q106" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>2518 - SONALI BANK LIMITED NGO LINKAGE CREDIT</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10499,7 +6789,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2524 - CREDIT FOR URBAN WOMEN MICRO ENTERPRISE DEV (CUMED</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -10514,7 +6804,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">16-Jan-2024 </t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -10550,41 +6840,6 @@
           <t>01</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>Branch Manager</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>37 Months 14</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>16,100.00</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="Q107" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>2518 - SONALI BANK LIMITED NGO LINKAGE CREDIT</t>
-        </is>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10609,7 +6864,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">27-May-2024 </t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -10645,41 +6900,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>13 Months 4</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>4415662000014 30-Jun-202530-May-2024 BDT 30-May-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>2591 - Loan for Floriculture</t>
-        </is>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>2591 - Loan for Floriculture</t>
-        </is>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10689,7 +6909,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2591 - Loan for Floriculture</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -10704,7 +6924,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-May-2024 </t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -10740,41 +6960,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>13 Months 1</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>Page 15 of16 Branch Code DHANMONDI CORPORATE DHAKA</t>
-        </is>
-      </c>
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>2591 - Loan for Floriculture</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10784,7 +6969,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Rate</t>
+          <t>2591 - Loan for Floriculture</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -10799,7 +6984,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">30-May-2024 </t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -10835,41 +7020,6 @@
           <t>Branch Manager</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>13 Months 1</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>4415662000010 28-Feb-202516-Jan-2024 BDT 15-Jan-2024 1,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>2591 - Loan for Floriculture</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10879,7 +7029,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>2591 - Loan for Floriculture</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -10894,7 +7044,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>BDT</t>
+          <t xml:space="preserve">16-Jan-2024 </t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -10928,41 +7078,6 @@
       <c r="L111" t="inlineStr">
         <is>
           <t>Branch Manager</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>13 Months 13</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>Days</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>Total : 4,00,000.00</t>
-        </is>
-      </c>
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>2591 - Loan for Floriculture</t>
-        </is>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Generated By</t>
         </is>
       </c>
     </row>
